--- a/sources/fact_extraction_viewpoint/environment-table18.xlsx
+++ b/sources/fact_extraction_viewpoint/environment-table18.xlsx
@@ -373,7 +373,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +600,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -914,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,8 +933,8 @@
   </sheetPr>
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
@@ -1366,7 +1372,7 @@
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1381,7 +1387,7 @@
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="15.9" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -2127,7 +2133,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="28">
@@ -2144,7 +2150,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.5">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="29">
